--- a/data/raw_data_before_2020/2017/permits-issued-by-county-2017.xlsx
+++ b/data/raw_data_before_2020/2017/permits-issued-by-county-2017.xlsx
@@ -1,27 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WPERMITS\Website Statistics\2017\Dec 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data_before_2020\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C544A340-5C48-46CC-BD05-2CACA82F1ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="17955" windowHeight="11550"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permits by County" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permits by County'!$A$1:$I$30</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -126,12 +141,15 @@
   </si>
   <si>
     <t>Type of Permit</t>
+  </si>
+  <si>
+    <t>Obs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,17 +198,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,25 +558,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -571,8 +601,11 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -594,7 +627,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -614,7 +647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
@@ -634,8 +667,11 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -656,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -677,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -698,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
@@ -719,7 +755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -740,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -761,7 +797,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -782,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -803,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -824,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
@@ -845,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -866,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1182,13 +1218,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1200,7 +1237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
